--- a/static/stable/Zowe_CLI_Installation_Checklist.xlsx
+++ b/static/stable/Zowe_CLI_Installation_Checklist.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ac895167\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ac895167\Documents\GitHub\docs-site\static\stable\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
-    <sheet name="Prepare for Installation" sheetId="3" r:id="rId1"/>
-    <sheet name="Install Zowe CLI" sheetId="5" r:id="rId2"/>
-    <sheet name="Configure Zowe CLI" sheetId="2" r:id="rId3"/>
+    <sheet name="Preparing for installation" sheetId="3" r:id="rId1"/>
+    <sheet name="Installing Zowe CLI" sheetId="5" r:id="rId2"/>
+    <sheet name="Configuring Zowe CLI" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>Step</t>
   </si>
@@ -40,124 +40,111 @@
     <t>Time Estimate</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Review the Zowe CLI Information Roadmap</t>
-  </si>
-  <si>
-    <t>Review the Release Notes</t>
-  </si>
-  <si>
-    <t>Address System Requirements</t>
-  </si>
-  <si>
-    <t>(Optional) Install API Mediation Layer</t>
-  </si>
-  <si>
-    <t>Install z/OSMF</t>
-  </si>
-  <si>
-    <t>Determine Profile Types</t>
-  </si>
-  <si>
-    <t>Learn about various Zowe CLI topics.</t>
-  </si>
-  <si>
-    <t>Read about new features and enhancements included with the latest release of Zowe CLI.</t>
-  </si>
-  <si>
-    <t>Install the client-side and host-side software, and ensure that there is sufficient free disk space.</t>
-  </si>
-  <si>
-    <t>Install the Zowe Runtime, which includes the API Mediation Layer.</t>
-  </si>
-  <si>
-    <t>Follow these steps to install z/OSMF.</t>
-  </si>
-  <si>
-    <t>Systems Administrator</t>
-  </si>
-  <si>
-    <t>Systems Administrator
-DevOps Architect</t>
-  </si>
-  <si>
-    <t>Systems Administrator
-Application Developer
-Systems Programmer
-DevOps Architect</t>
-  </si>
-  <si>
-    <t>15 minutes</t>
-  </si>
-  <si>
-    <t>See Note 1</t>
-  </si>
-  <si>
-    <t>8  hours</t>
-  </si>
-  <si>
-    <t>See Note 2</t>
-  </si>
-  <si>
-    <t>Install Zowe CLI</t>
-  </si>
-  <si>
-    <t>(Optional) Install Zowe CLI plug-ins</t>
-  </si>
-  <si>
     <t>Install Zowe CLI from an online registry or a local package.</t>
   </si>
   <si>
-    <t>Install Zowe CLI 
-(Quick Start)</t>
-  </si>
-  <si>
-    <t>Use the Quick Start method if you possess prerequisite knowledge of command line tools and writing scripts, and you want to get started with Zowe CLI quickly and easily.</t>
-  </si>
-  <si>
-    <t>Install Zowe CLI plug-ins from an online registry or a local package.</t>
-  </si>
-  <si>
-    <t>30 minutes</t>
-  </si>
-  <si>
-    <t>Configure environment variables</t>
-  </si>
-  <si>
-    <t>Configure Zowe profiles</t>
-  </si>
-  <si>
-    <t>Configure daemon mode</t>
-  </si>
-  <si>
-    <t>Learn how to store configuration options that are common to your environment.</t>
-  </si>
-  <si>
-    <t>Learn how to configure Zowe team profiles and user profiles.</t>
-  </si>
-  <si>
-    <t>Learn how to configure Zowe CLI to run as persisten background process (daemon).</t>
-  </si>
-  <si>
-    <t>Systems Administrator
-DevOps Architech
-Application Developer</t>
-  </si>
-  <si>
-    <t>Learn about configuration and how to use team profiles.</t>
+    <t>40 min.</t>
+  </si>
+  <si>
+    <t>50 min.</t>
+  </si>
+  <si>
+    <t>Systems administrator</t>
+  </si>
+  <si>
+    <t>Systems programmer</t>
+  </si>
+  <si>
+    <t>Security administrator</t>
+  </si>
+  <si>
+    <t>Configure log-in credential requirements in the NPM configuration file to use a proxy server to download Zowe CLI.</t>
+  </si>
+  <si>
+    <t>Configuring your PC to install from an online registry by proxy</t>
+  </si>
+  <si>
+    <t>Configuring z/OSMF</t>
+  </si>
+  <si>
+    <t>Configuring z/OSMF security</t>
+  </si>
+  <si>
+    <t>Confirm that z/OS components, region sizes, and user IDs meet Zowe CLI requirements</t>
+  </si>
+  <si>
+    <t>Configure security for:
+ - SAF access to REST endpoints
+ - z/OS console REST interface
+ - z/OS data set and file REST services</t>
+  </si>
+  <si>
+    <t>Check the following items:
+ - Node.js
+ - Node Package Manager (npm)
+ - Disk space
+ - Plug-in configuration</t>
+  </si>
+  <si>
+    <t>15 min.</t>
+  </si>
+  <si>
+    <t>30 min.</t>
+  </si>
+  <si>
+    <t>Updating Zowe CLI and Zowe CLI plug-ins</t>
+  </si>
+  <si>
+    <t>Identify the currently installed version of Zowe CLI and update to the most recent version. Or, revert to a specific previous release of Zowe CLI.</t>
+  </si>
+  <si>
+    <t>Configuring environment variables</t>
+  </si>
+  <si>
+    <t>Configuring Zowe profiles</t>
+  </si>
+  <si>
+    <t>Configuring daemon mode</t>
+  </si>
+  <si>
+    <t>Verifying your Zowe CLI installation</t>
+  </si>
+  <si>
+    <t>Set the location of the CLI home directory to contain log files, profiles, and other files.
+Set log levels to adjust the detail included in log files.
+Set CLI daemon mode properties.</t>
+  </si>
+  <si>
+    <t>Create team profiles to streamline profile management in one location:
+ - Create service profiles to store connection information for a specific mainframe service.
+ - Create base profiles to store connection information used with one or more services.</t>
+  </si>
+  <si>
+    <t>Enable daemon mode and configure daemon mode properties to run Zowe CLI commands significantly faster.</t>
+  </si>
+  <si>
+    <t>Confirm the connection to z/OSMF.
+Access the product help.</t>
+  </si>
+  <si>
+    <t>Installing Zowe CLI from a local package
+or
+Install Zowe CLI from an NPM public online registry</t>
+  </si>
+  <si>
+    <t>Security administrator
+and/or
+DevOps architech</t>
+  </si>
+  <si>
+    <t>Systems administrator
+and/or
+DevOps architech</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Note 1:</t>
+      <t xml:space="preserve">Addressing 
+</t>
     </r>
     <r>
       <rPr>
@@ -166,19 +153,18 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Allow 15 minutes to install the client-side software. The amount of time to install the host-side software depends upon your site's implementation. For example, do you require z/OSMF, REST APIs, or both, to support the Mediation Layer? See the information for the specific server-side software that you require to determine how much time to allow for complete server-side installation and configuration.</t>
+      <t>Zowe CLI software requirements</t>
     </r>
-  </si>
-  <si>
     <r>
       <rPr>
-        <b/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF1C1E21"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Note 2: </t>
+      <t xml:space="preserve"> 
+and 
+</t>
     </r>
     <r>
       <rPr>
@@ -187,7 +173,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Allow 15 to 25 hours to install and configure z/OSMF. The length of time varies depending on the External Security Manager (ESM) that you are running in your site.</t>
+      <t>Zowe CLI plug-ins software requirements</t>
     </r>
   </si>
 </sst>
@@ -195,7 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,8 +217,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1C1E21"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,14 +237,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -275,12 +261,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -298,14 +310,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -323,6 +362,244 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1349375</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>631825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="228600"/>
+          <a:ext cx="1349375" cy="593725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>796925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1603375</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12700" y="987425"/>
+          <a:ext cx="1590675" cy="403225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1793875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>546100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3175" y="269875"/>
+          <a:ext cx="1790700" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>685800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1098550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22225" y="876300"/>
+          <a:ext cx="1825625" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -590,180 +867,159 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="62.5546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" style="7" customWidth="1"/>
-    <col min="4" max="5" width="23.33203125" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="25.41796875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="62.5234375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="25.5234375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="23.3125" style="10" customWidth="1"/>
+    <col min="5" max="16384" width="8.89453125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="95.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="95.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="95.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="95.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="11" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A11:E11"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A4" r:id="rId2"/>
-    <hyperlink ref="A6" r:id="rId3"/>
-    <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A3" r:id="rId5"/>
-    <hyperlink ref="A5" r:id="rId6"/>
+    <hyperlink ref="A3" r:id="rId1" display="http://localhost:3000/stable/user-guide/cli-install-configure-install-online-registry-proxy"/>
+    <hyperlink ref="A4" r:id="rId2" display="http://localhost:3000/stable/user-guide/cli-install-configure-zosmf-security"/>
+    <hyperlink ref="A5" r:id="rId3" display="http://localhost:3000/stable/user-guide/cli-install-configure-zosmf"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="15" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="62.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" style="3" customWidth="1"/>
-    <col min="4" max="5" width="23.33203125" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="25.41796875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="62.5234375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.5234375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.3125" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.89453125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -776,84 +1032,63 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="95.05" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="95.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="5"/>
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://docs.zowe.org/stable/getting-started/cli-getting-started/"/>
-    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="15" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="62.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" style="3" customWidth="1"/>
-    <col min="4" max="5" width="23.33203125" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="25.41796875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="62.5234375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.5234375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.3125" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.89453125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -866,62 +1101,71 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="95.05" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="D2" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="95.05" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="95.05" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="95.05" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4"/>
+      <c r="D5" s="15" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId1" display="Configure environment variables"/>
+    <hyperlink ref="A3" r:id="rId2" display="Configure Zowe profiles"/>
+    <hyperlink ref="A4" r:id="rId3" display="Configure daemon mode"/>
+    <hyperlink ref="A5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>